--- a/projects/m0_office_reduced_lhs.xlsx
+++ b/projects/m0_office_reduced_lhs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6928,7 +6928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7360,9 +7360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="43" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>764</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="77" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" s="37" t="s">
         <v>854</v>
